--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -3,15 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{61134E3A-D32C-4EA0-B435-02975C3E1A04}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{ADA88A6F-FC34-4070-B1E1-1709ED3C2340}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Dataset2" sheetId="2" r:id="rId2"/>
+    <sheet name="Dataset3" sheetId="3" r:id="rId3"/>
+    <sheet name="Dataset4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>X1</t>
   </si>
@@ -29,69 +31,32 @@
     <t>Y2</t>
   </si>
   <si>
-    <t>Dataset 2         Dataset 3        Dataset 4</t>
+    <t>X2</t>
   </si>
   <si>
-    <t>X2     Y2         X3     Y3       X4     Y4</t>
+    <t>X3</t>
   </si>
   <si>
-    <t>10.00   9.14    10.00   7.46     8.00   6.58</t>
+    <t>Y3</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.00   8.14     8.00   6.77     8.00   5.76</t>
+    <t>X4</t>
   </si>
   <si>
-    <t>13.00   8.74    13.00  12.74     8.00   7.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.00   8.77     9.00   7.11     8.00   8.84</t>
-  </si>
-  <si>
-    <t>11.00   9.26    11.00   7.81     8.00   8.47</t>
-  </si>
-  <si>
-    <t>14.00   8.10    14.00   8.84     8.00   7.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.00   6.13     6.00   6.08     8.00   5.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.00   3.10     4.00   5.39    19.00  12.50</t>
-  </si>
-  <si>
-    <t>12.00   9.13    12.00   8.15     8.00   5.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.00   7.26     7.00   6.42     8.00   7.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.00   4.74     5.00   5.73     8.00   6.89</t>
+    <t>Y4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,14 +79,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,132 +473,330 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6FC3C0-BDDF-4B22-B36E-C76D9E5571C0}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="57.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="str">
-        <f>TRIM(A1)</f>
-        <v>Dataset 2 Dataset 3 Dataset 4</v>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>8.14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>8.74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>9.1300000000000008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>4.74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE099272-07DA-4518-8C81-7297D1E0BDA1}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B13" si="0">TRIM(A2)</f>
-        <v>X2 Y2 X3 Y3 X4 Y4</v>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>7.46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>7.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>8.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>4</v>
       </c>
-      <c r="B3" t="str">
-        <f t="shared" si="0"/>
-        <v>10.00 9.14 10.00 7.46 8.00 6.58</v>
+      <c r="B9">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>5.73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B2F74C-F0BF-4A4F-84BF-F26A2CAC70B3}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>5.76</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>8.00 8.14 8.00 6.77 8.00 5.76</v>
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>7.71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>13.00 8.74 13.00 12.74 8.00 7.71</v>
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>8.84</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>9.00 8.77 9.00 7.11 8.00 8.84</v>
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>8.4700000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>11.00 9.26 11.00 7.81 8.00 8.47</v>
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>7.04</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>14.00 8.10 14.00 8.84 8.00 7.04</v>
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>5.25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>6.00 6.13 6.00 6.08 8.00 5.25</v>
+      <c r="A9">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>12.5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>4.00 3.10 4.00 5.39 19.00 12.50</v>
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>5.56</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>12.00 9.13 12.00 8.15 8.00 5.56</v>
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>7.91</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>7.00 7.26 7.00 6.42 8.00 7.91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>5.00 4.74 5.00 5.73 8.00 6.89</v>
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>6.89</v>
       </c>
     </row>
   </sheetData>
